--- a/VIBRANT BIOMEDICINES INC_search_results.xlsx
+++ b/VIBRANT BIOMEDICINES INC_search_results.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -493,42 +493,9 @@
         <v>Disc Medicine is a biopharmaceutical company dedicated to transforming the lives of patients with hematologic disorders.</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>Flagship Pioneering Raises $3.6 Billion to Fuel Breakthrough ...</v>
-      </c>
-      <c r="B9" t="str">
-        <v>https://www.prnewswire.com/news-releases/flagship-pioneering-raises-3-6-billion-to-fuel-breakthrough-innovations-that-transform-human-health-and-sustainability-302192743.html</v>
-      </c>
-      <c r="C9" t="str">
-        <v>Jul 10, 2024 ... PRNewswire/ -- Flagship Pioneering, the bioplatform innovation company, today announced it has expanded its capital base by $3.6 billion to ...</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>Hogan Lovells - Global law firm operating at the intersection of ...</v>
-      </c>
-      <c r="B10" t="str">
-        <v>https://www.hoganlovells.com/</v>
-      </c>
-      <c r="C10" t="str">
-        <v>One of the world's top law firms advising on corporate, finance, litigation, regulatory and IP law, at the intersection of business and government.</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>12-9-21-Anavo Therapeutics Announces the Appointment of ...</v>
-      </c>
-      <c r="B11" t="str">
-        <v>https://www.anavotx.com/12-9-21-anavo-therapeutics-announces-the-appointment-of-charles-mcdermott-as-chairman-of-the-board</v>
-      </c>
-      <c r="C11" t="str">
-        <v>Dec 9, 2021 ... McDermott served as President, Chief Business Officer and a member of the Board of Directors at Impact Biomedicines, Inc., where he raised more ...</v>
-      </c>
-    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D8"/>
   </ignoredErrors>
 </worksheet>
 </file>